--- a/高级软件工程_智慧水务进度计划表_Ver.1.0.0.xlsx
+++ b/高级软件工程_智慧水务进度计划表_Ver.1.0.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoenix/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoenix/Documents/高级软件工程/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C4525E-D1C5-EC43-8976-7760DE9AFD8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B67C2FB-3F6C-7A4A-B7AF-1481C4E64DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>延期：苏州耽搁，延至11.07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>周小佳</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>整理与完善相关的项目文档</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：苏州耽搁</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -249,6 +249,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -256,6 +257,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,6 +265,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -271,6 +274,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -549,6 +553,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,27 +590,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +870,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -886,15 +890,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
@@ -908,24 +912,24 @@
         <v>2</v>
       </c>
       <c r="M1" s="5">
-        <v>43768</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="16">
         <f>M1-J1</f>
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="22" t="s">
@@ -1008,7 +1012,7 @@
         <v>26</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1016,7 +1020,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1047,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1055,7 +1059,7 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1086,7 +1090,7 @@
         <v>26</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1094,37 +1098,37 @@
       <c r="B7" s="20">
         <v>1</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="36" t="s">
+      <c r="J7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1133,37 +1137,37 @@
       <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="36" t="s">
+      <c r="J8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1172,37 +1176,37 @@
       <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="36" t="s">
+      <c r="J9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1211,37 +1215,37 @@
       <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="37" t="s">
+      <c r="I10" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="37" t="s">
+      <c r="J10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1250,38 +1254,38 @@
       <c r="B11" s="21">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="37" t="s">
+      <c r="J11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>44</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1289,75 +1293,75 @@
       <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="J12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="F13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="37" t="s">
+      <c r="H13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="I13" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="34">
-        <v>1</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="32" t="s">
         <v>21</v>
       </c>
     </row>
